--- a/excel/base.xlsx
+++ b/excel/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C347BF6-B4AD-0444-B5F5-CEA4CAF500CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A9FBC-36B7-7F43-A9E9-5A31015CD6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{2A2F641C-6CB1-9949-BF3F-94D9B5D8D6E5}"/>
   </bookViews>
@@ -34,21 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>speed</t>
+    <t>speed[mm/s]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>length</t>
+    <t>length[mm]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cross_section_area</t>
+    <t>cross_section_area[mm2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -413,21 +417,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EB44C-4989-5747-853F-91E61A2389CE}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,9 +445,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>